--- a/KEURIG/User Stories_KUERIG_V01.xlsx
+++ b/KEURIG/User Stories_KUERIG_V01.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saranya_saseendran\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="4620" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details" sheetId="4" r:id="rId1"/>
     <sheet name="User Stories" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint1 User Stories" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Org Chart</t>
   </si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>US05_As a Normal user, after successful logging in to KUERIG portal , I can view my KUERIG home page with Knowledge Repository , Learning of the Month, Appreciation Of Month and Star of the Month widgets with details.</t>
+  </si>
+  <si>
+    <t>sheet1</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1884,4 +1884,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>